--- a/Input_value.xlsx
+++ b/Input_value.xlsx
@@ -10,7 +10,6 @@
     <sheet name="input" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -83,7 +82,7 @@
     <t>"7700998877"</t>
   </si>
   <si>
-    <t>mnb1253705@gmail.com</t>
+    <t>mnb12537051@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -450,7 +449,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,8 +556,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/Input_value.xlsx
+++ b/Input_value.xlsx
@@ -82,7 +82,7 @@
     <t>"7700998877"</t>
   </si>
   <si>
-    <t>mnb12537051@gmail.com</t>
+    <t>mnb12537051221@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,8 +556,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
